--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N2">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O2">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P2">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q2">
-        <v>1.449078588935333</v>
+        <v>0.7309109045649999</v>
       </c>
       <c r="R2">
-        <v>13.041707300418</v>
+        <v>6.578198141084999</v>
       </c>
       <c r="S2">
-        <v>0.09522622238395863</v>
+        <v>0.04254587852450901</v>
       </c>
       <c r="T2">
-        <v>0.1052953805508492</v>
+        <v>0.05000662348164217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P3">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q3">
-        <v>2.908335016507111</v>
+        <v>2.761744417709778</v>
       </c>
       <c r="R3">
-        <v>26.175015148564</v>
+        <v>24.855699759388</v>
       </c>
       <c r="S3">
-        <v>0.1911212815948379</v>
+        <v>0.1607594602539847</v>
       </c>
       <c r="T3">
-        <v>0.2113303202951006</v>
+        <v>0.1889498602174134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N4">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O4">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P4">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q4">
-        <v>0.2992204611965555</v>
+        <v>0.4650043975513334</v>
       </c>
       <c r="R4">
-        <v>2.692984150769</v>
+        <v>4.185039577962001</v>
       </c>
       <c r="S4">
-        <v>0.01966327733864917</v>
+        <v>0.02706762272667959</v>
       </c>
       <c r="T4">
-        <v>0.02174245936063439</v>
+        <v>0.03181413723673548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N5">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O5">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P5">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q5">
-        <v>0.635042552821</v>
+        <v>1.257833514954333</v>
       </c>
       <c r="R5">
-        <v>3.810255316926</v>
+        <v>7.547001089726</v>
       </c>
       <c r="S5">
-        <v>0.04173183139959292</v>
+        <v>0.07321772270336147</v>
       </c>
       <c r="T5">
-        <v>0.03076301854886442</v>
+        <v>0.05737133996502321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H6">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I6">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J6">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N6">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O6">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P6">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q6">
-        <v>0.982686120927</v>
+        <v>0.5348700393548889</v>
       </c>
       <c r="R6">
-        <v>8.844175088343</v>
+        <v>4.813830354194</v>
       </c>
       <c r="S6">
-        <v>0.0645772339744371</v>
+        <v>0.03113445917780629</v>
       </c>
       <c r="T6">
-        <v>0.07140558825113094</v>
+        <v>0.03659412454045887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N7">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O7">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P7">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q7">
-        <v>1.047837855437334</v>
+        <v>0.5565799191399999</v>
       </c>
       <c r="R7">
-        <v>9.430540698936001</v>
+        <v>5.009219272259999</v>
       </c>
       <c r="S7">
-        <v>0.06885868123792883</v>
+        <v>0.03239817805564783</v>
       </c>
       <c r="T7">
-        <v>0.07613975293425815</v>
+        <v>0.03807944618153068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
         <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P8">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q8">
         <v>2.103035370103111</v>
       </c>
       <c r="R8">
-        <v>18.92731833092801</v>
+        <v>18.927318330928</v>
       </c>
       <c r="S8">
-        <v>0.138201002598422</v>
+        <v>0.1224164078416698</v>
       </c>
       <c r="T8">
-        <v>0.1528142857797653</v>
+        <v>0.1438830605269344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
         <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J9">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N9">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O9">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P9">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q9">
-        <v>0.2163682002875556</v>
+        <v>0.3540952917413334</v>
       </c>
       <c r="R9">
-        <v>1.947313802588</v>
+        <v>3.186857625672</v>
       </c>
       <c r="S9">
-        <v>0.0142186397029976</v>
+        <v>0.02061167123713037</v>
       </c>
       <c r="T9">
-        <v>0.01572210931990881</v>
+        <v>0.02422608531373525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
         <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J10">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N10">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O10">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P10">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q10">
-        <v>0.4592032700920001</v>
+        <v>0.9578251900093333</v>
       </c>
       <c r="R10">
-        <v>2.755219620552</v>
+        <v>5.746951140056</v>
       </c>
       <c r="S10">
-        <v>0.03017655015477786</v>
+        <v>0.05575442085667751</v>
       </c>
       <c r="T10">
-        <v>0.02224493248962049</v>
+        <v>0.04368758977223108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
         <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J11">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N11">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O11">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P11">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q11">
-        <v>0.7105865240040001</v>
+        <v>0.4072971430515555</v>
       </c>
       <c r="R11">
-        <v>6.395278716036001</v>
+        <v>3.665674287464</v>
       </c>
       <c r="S11">
-        <v>0.04669620466034556</v>
+        <v>0.02370851859429332</v>
       </c>
       <c r="T11">
-        <v>0.05163383064977802</v>
+        <v>0.02786598852270427</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N12">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O12">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P12">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q12">
-        <v>0.112332795778</v>
+        <v>0.180447833505</v>
       </c>
       <c r="R12">
-        <v>1.010995162002</v>
+        <v>1.624030501545</v>
       </c>
       <c r="S12">
-        <v>0.007381951450698719</v>
+        <v>0.01050375846955477</v>
       </c>
       <c r="T12">
-        <v>0.008162514145265018</v>
+        <v>0.0123456727924082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P13">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q13">
-        <v>0.2254545791773333</v>
+        <v>0.6818215376973334</v>
       </c>
       <c r="R13">
-        <v>2.029091212596</v>
+        <v>6.136393839276001</v>
       </c>
       <c r="S13">
-        <v>0.01481575123540842</v>
+        <v>0.03968841638165072</v>
       </c>
       <c r="T13">
-        <v>0.01638235903330172</v>
+        <v>0.04664808351381316</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H14">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I14">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J14">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N14">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O14">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P14">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q14">
-        <v>0.02319561631566667</v>
+        <v>0.114800635186</v>
       </c>
       <c r="R14">
-        <v>0.208760546841</v>
+        <v>1.033205716674</v>
       </c>
       <c r="S14">
-        <v>0.001524300292940996</v>
+        <v>0.006682475044023197</v>
       </c>
       <c r="T14">
-        <v>0.001685478804061331</v>
+        <v>0.007854298113962719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H15">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I15">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J15">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N15">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O15">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P15">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q15">
-        <v>0.049228596669</v>
+        <v>0.310534883617</v>
       </c>
       <c r="R15">
-        <v>0.295371580014</v>
+        <v>1.863209301702</v>
       </c>
       <c r="S15">
-        <v>0.003235058008480173</v>
+        <v>0.01807604641478774</v>
       </c>
       <c r="T15">
-        <v>0.002384753944024099</v>
+        <v>0.01416387953348233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H16">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I16">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J16">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N16">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O16">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P16">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q16">
-        <v>0.076177979703</v>
+        <v>0.1320491173486667</v>
       </c>
       <c r="R16">
-        <v>0.685601817327</v>
+        <v>1.188442056138</v>
       </c>
       <c r="S16">
-        <v>0.005006037140669042</v>
+        <v>0.007686498683897233</v>
       </c>
       <c r="T16">
-        <v>0.005535372217676319</v>
+        <v>0.009034384972362553</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H17">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I17">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J17">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N17">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O17">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P17">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q17">
-        <v>0.6753150149659999</v>
+        <v>0.5390117782425</v>
       </c>
       <c r="R17">
-        <v>4.051890089796</v>
+        <v>3.234070669455</v>
       </c>
       <c r="S17">
-        <v>0.04437833688621871</v>
+        <v>0.03137554727553744</v>
       </c>
       <c r="T17">
-        <v>0.03271391537376473</v>
+        <v>0.02458499285243237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H18">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I18">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J18">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P18">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q18">
-        <v>1.355373214534667</v>
+        <v>2.036654208254</v>
       </c>
       <c r="R18">
-        <v>8.132239287208</v>
+        <v>12.219925249524</v>
       </c>
       <c r="S18">
-        <v>0.08906837222359842</v>
+        <v>0.1185524008461402</v>
       </c>
       <c r="T18">
-        <v>0.06565760224121023</v>
+        <v>0.09289431358265056</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H19">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I19">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J19">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N19">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O19">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P19">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q19">
-        <v>0.1394459015363333</v>
+        <v>0.3429184674210001</v>
       </c>
       <c r="R19">
-        <v>0.8366754092179999</v>
+        <v>2.057510804526001</v>
       </c>
       <c r="S19">
-        <v>0.009163689624305849</v>
+        <v>0.01996107510174272</v>
       </c>
       <c r="T19">
-        <v>0.006755101428194384</v>
+        <v>0.01564093478254092</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H20">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I20">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J20">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N20">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O20">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P20">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q20">
-        <v>0.295949284143</v>
+        <v>0.9275919614745001</v>
       </c>
       <c r="R20">
-        <v>1.183797136572</v>
+        <v>3.710367845898</v>
       </c>
       <c r="S20">
-        <v>0.01944831188685263</v>
+        <v>0.05399456304006405</v>
       </c>
       <c r="T20">
-        <v>0.00955767271255652</v>
+        <v>0.02820574325503819</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H21">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I21">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J21">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N21">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O21">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P21">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q21">
-        <v>0.457961836941</v>
+        <v>0.394441031377</v>
       </c>
       <c r="R21">
-        <v>2.747771021646</v>
+        <v>2.366646188262</v>
       </c>
       <c r="S21">
-        <v>0.030094969355631</v>
+        <v>0.02296017216494474</v>
       </c>
       <c r="T21">
-        <v>0.02218479442346769</v>
+        <v>0.01799094255180968</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H22">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I22">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J22">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N22">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O22">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P22">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q22">
-        <v>0.2298884217626666</v>
+        <v>0.17666474556</v>
       </c>
       <c r="R22">
-        <v>2.068995795864</v>
+        <v>1.58998271004</v>
       </c>
       <c r="S22">
-        <v>0.0151071212710092</v>
+        <v>0.01028354722472282</v>
       </c>
       <c r="T22">
-        <v>0.01670453834496227</v>
+        <v>0.01208684582282544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H23">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I23">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J23">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O23">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P23">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q23">
-        <v>0.4613915021635555</v>
+        <v>0.6675271525013333</v>
       </c>
       <c r="R23">
-        <v>4.152523519472</v>
+        <v>6.007744372512001</v>
       </c>
       <c r="S23">
-        <v>0.03032034985995931</v>
+        <v>0.03885634892673499</v>
       </c>
       <c r="T23">
-        <v>0.03352640372592488</v>
+        <v>0.04567010667158319</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H24">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I24">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J24">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N24">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O24">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P24">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q24">
-        <v>0.04746969564577777</v>
+        <v>0.112393840432</v>
       </c>
       <c r="R24">
-        <v>0.427227260812</v>
+        <v>1.011544563888</v>
       </c>
       <c r="S24">
-        <v>0.003119471799928301</v>
+        <v>0.006542376987478189</v>
       </c>
       <c r="T24">
-        <v>0.003449322697761712</v>
+        <v>0.007689632792499909</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H25">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I25">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J25">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N25">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O25">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P25">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q25">
-        <v>0.100746040508</v>
+        <v>0.304024521304</v>
       </c>
       <c r="R25">
-        <v>0.604476243048</v>
+        <v>1.824147127824</v>
       </c>
       <c r="S25">
-        <v>0.006620527644926951</v>
+        <v>0.01769708219029817</v>
       </c>
       <c r="T25">
-        <v>0.004880385257814116</v>
+        <v>0.01386693386848456</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H26">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I26">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J26">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N26">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O26">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P26">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q26">
-        <v>0.155897798196</v>
+        <v>0.1292807082506666</v>
       </c>
       <c r="R26">
-        <v>1.403080183764</v>
+        <v>1.163526374256</v>
       </c>
       <c r="S26">
-        <v>0.01024482627342464</v>
+        <v>0.007525351276663306</v>
       </c>
       <c r="T26">
-        <v>0.01132810747010482</v>
+        <v>0.008844979135697373</v>
       </c>
     </row>
   </sheetData>
